--- a/REE.xlsx
+++ b/REE.xlsx
@@ -27,7 +27,7 @@
     <author>路远发</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>样品号</t>
   </si>
@@ -124,87 +124,91 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Marker</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alpha</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>blue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>blue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>black</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Style</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>--</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Width</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -214,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,39 +234,10 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -270,11 +245,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="12"/>
-      <name val="仿宋"/>
     </font>
     <font>
       <u/>
@@ -293,6 +263,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,86 +293,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="常规_REE_1" xfId="2"/>
     <cellStyle name="常规_REE配分模式" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -683,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,535 +679,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>5.43</v>
       </c>
-      <c r="D2" s="9">
+      <c r="E2" s="9">
         <v>8.0399999999999991</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="9">
         <v>0.82</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>2.91</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>0.72</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>0.54</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>0.44</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>0.08</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <v>0.12</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>0.32</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>0.05</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>0.3</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>0.04</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>5.1399998664856001</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>20.36</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U2">
+      <c r="V2" s="5">
         <v>50</v>
       </c>
-      <c r="V2">
+      <c r="W2" s="5">
         <v>0.6</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X2">
+      <c r="Y2" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>4.97</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E3" s="9">
         <v>8.99</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>0.85</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>3.87</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>0.74</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>0.26</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>0.68</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>0.12</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>0.79</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>0.17</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>0.48</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>0.42</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>0.06</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>6.7800002098083496</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <v>22.47</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U3">
+      <c r="V3" s="5">
         <v>50</v>
       </c>
-      <c r="V3">
+      <c r="W3" s="5">
         <v>0.6</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X3">
+      <c r="Y3" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>3.02</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <v>6.44</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>0.95</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>3.78</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>0.8</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>0.84</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>1.18</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>0.1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>0.65</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>0.4</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>0.06</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>0.36</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>0.05</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>6.6399998664856001</v>
       </c>
-      <c r="R4" s="11">
+      <c r="S4" s="11">
         <v>18.77</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U4">
+      <c r="V4" s="5">
         <v>50</v>
       </c>
-      <c r="V4">
+      <c r="W4" s="5">
         <v>0.6</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="X4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X4">
+      <c r="Y4" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>6.1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E5" s="9">
         <v>16.3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>3.59</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>19</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>2.78</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>3.6</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>2.39</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>0.38</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>2.71</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>1.56</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.22</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>1.29</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>19.799999237060501</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
         <v>60.67</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U5">
+      <c r="V5" s="5">
         <v>50</v>
       </c>
-      <c r="V5">
+      <c r="W5" s="5">
         <v>0.6</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="X5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X5">
+      <c r="Y5" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>4.49</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <v>10.3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>3.02</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>3.54</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>1.37</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>2.99</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>0.48</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>3.2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>0.7</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>2.04</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>0.27</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>1.62</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>0.24</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>21.600000381469702</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S6" s="11">
         <v>52.16</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="T6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U6">
+      <c r="V6" s="5">
         <v>50</v>
       </c>
-      <c r="V6">
+      <c r="W6" s="5">
         <v>0.6</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="X6">
+      <c r="Y6" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>6.43</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <v>14.7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>3.77</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>22.2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>1.8</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>3.17</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>0.42</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>2.83</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>0.48</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>1.21</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>0.19</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>0.18</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>15.1000003814697</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="11">
         <v>62.86</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="T7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U7">
+      <c r="V7" s="5">
         <v>50</v>
       </c>
-      <c r="V7">
+      <c r="W7" s="5">
         <v>0.6</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X7">
+      <c r="Y7" s="5">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B7">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C7">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/REE.xlsx
+++ b/REE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="4060" windowWidth="26560" windowHeight="11180"/>
+    <workbookView xWindow="1300" yWindow="4060" windowWidth="26560" windowHeight="15380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>路远发</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,10 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
-  <si>
-    <t>样品号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>样品名</t>
   </si>
@@ -208,6 +205,55 @@
   </si>
   <si>
     <t>Label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>C1球粒陨石</t>
+  </si>
+  <si>
+    <t>Sun and McDonough</t>
+  </si>
+  <si>
+    <t>球粒陨石</t>
+  </si>
+  <si>
+    <t>Taylor and McLennan,1985</t>
+  </si>
+  <si>
+    <t>Haskin et al.,1966</t>
+  </si>
+  <si>
+    <t>Nakamura,1977</t>
+  </si>
+  <si>
+    <t>北美页岩</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>MORB</t>
+  </si>
+  <si>
+    <t>Sun and McDonough,1989</t>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把用来参考的数据的DataType设置为Standard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +315,27 @@
       <name val="Calibri (主题正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,8 +402,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,23 +482,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="35">
     <cellStyle name="常规_REE_1" xfId="2"/>
     <cellStyle name="常规_REE配分模式" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -380,12 +512,32 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -671,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,559 +831,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="14" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5.43</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="11">
+        <v>5.1399998664856001</v>
+      </c>
+      <c r="T2" s="12">
+        <f>SUM(E2:R2)</f>
+        <v>20.36</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="W2" s="14">
+        <v>50</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>45</v>
+      <c r="Z2" s="14">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5.43</v>
-      </c>
-      <c r="E2" s="9">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2.91</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.72</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="R2" s="10">
-        <v>5.1399998664856001</v>
-      </c>
-      <c r="S2" s="11">
-        <v>20.36</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="5">
-        <v>50</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
+    <row r="3" spans="1:26" s="14" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9">
         <v>4.97</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="10">
         <v>8.99</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="10">
         <v>0.85</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="9">
         <v>3.87</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="9">
         <v>0.74</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="9">
         <v>0.26</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="11">
         <v>0.68</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="11">
         <v>0.12</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="11">
         <v>0.79</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="11">
         <v>0.17</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="11">
         <v>0.48</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="11">
         <v>0.42</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="11">
         <v>0.06</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="11">
         <v>6.7800002098083496</v>
       </c>
-      <c r="S3" s="11">
-        <v>22.47</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="12">
+        <f t="shared" ref="T3:T7" si="0">SUM(E3:R3)</f>
+        <v>22.470000000000002</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="14">
+        <v>50</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="14" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="F4" s="10">
+        <v>6.44</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1.18</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="11">
+        <v>6.6399998664856001</v>
+      </c>
+      <c r="T4" s="12">
+        <f t="shared" si="0"/>
+        <v>18.77</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W4" s="14">
         <v>50</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X4" s="14">
         <v>0.6</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Z4" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:26" s="14" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3.02</v>
-      </c>
-      <c r="E4" s="9">
-        <v>6.44</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="G4" s="8">
-        <v>3.78</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1.18</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N4" s="10">
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3.59</v>
+      </c>
+      <c r="H5" s="9">
+        <v>19</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="M5" s="11">
+        <v>2.71</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1.56</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>19.799999237060501</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="0"/>
+        <v>60.67</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="14">
+        <v>50</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="14">
         <v>0.4</v>
       </c>
-      <c r="O4" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="R4" s="10">
-        <v>6.6399998664856001</v>
-      </c>
-      <c r="S4" s="11">
-        <v>18.77</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="5">
-        <v>50</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>16.3</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3.59</v>
-      </c>
-      <c r="G5" s="8">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2.78</v>
-      </c>
-      <c r="I5" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="J5" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L5" s="10">
-        <v>2.71</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="10">
-        <v>1.56</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1.29</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="R5" s="10">
-        <v>19.799999237060501</v>
-      </c>
-      <c r="S5" s="11">
-        <v>60.67</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="5">
-        <v>50</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
+    <row r="6" spans="1:26" s="14" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9">
         <v>4.49</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="10">
         <v>10.3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="10">
         <v>3.02</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="9">
         <v>17.899999999999999</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="9">
         <v>3.54</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="9">
         <v>1.37</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="11">
         <v>2.99</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="11">
         <v>0.48</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="11">
         <v>3.2</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="11">
         <v>0.7</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="11">
         <v>2.04</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="11">
         <v>0.27</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="11">
         <v>1.62</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="11">
         <v>0.24</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="11">
         <v>21.600000381469702</v>
       </c>
-      <c r="S6" s="11">
-        <v>52.16</v>
-      </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="12">
+        <f t="shared" si="0"/>
+        <v>52.160000000000004</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="14">
+        <v>50</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="14" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6.43</v>
+      </c>
+      <c r="F7" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3.77</v>
+      </c>
+      <c r="H7" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2.83</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="S7" s="11">
+        <v>15.1000003814697</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="0"/>
+        <v>62.859999999999992</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="V7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="14">
         <v>50</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X7" s="14">
         <v>0.6</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Y7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Z7" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6.43</v>
-      </c>
-      <c r="E7" s="9">
-        <v>14.7</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3.77</v>
-      </c>
-      <c r="G7" s="8">
-        <v>22.2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="J7" s="10">
-        <v>3.17</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="L7" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1.21</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="R7" s="10">
-        <v>15.1000003814697</v>
-      </c>
-      <c r="S7" s="11">
-        <v>62.86</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="5">
+    <row r="19" spans="1:18">
+      <c r="A19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G19" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.153</v>
+      </c>
+      <c r="J19" s="15">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="L19" s="15">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.254</v>
+      </c>
+      <c r="N19" s="15">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="P19" s="15">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="R19" s="15">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0.4</v>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J20" s="6">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="N20" s="6">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.249</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.56E-2</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0.248</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="J21" s="6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N21" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.186</v>
+      </c>
+      <c r="R21" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N22" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="R22" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>66.5</v>
+      </c>
+      <c r="G23" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="H23" s="6">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="K23" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="M23" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="O23" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>2.97</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="H24" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2.63</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="M24" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1.052</v>
+      </c>
+      <c r="O24" s="6">
+        <v>2.97</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>3.05</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C7">
+  <conditionalFormatting sqref="D2:D7">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
